--- a/DATA_goal/Junction_Flooding_376.xlsx
+++ b/DATA_goal/Junction_Flooding_376.xlsx
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.24</v>
+        <v>32.42</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.97</v>
+        <v>49.65</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.69</v>
+        <v>106.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.93</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.85</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.43</v>
+        <v>24.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_376.xlsx
+++ b/DATA_goal/Junction_Flooding_376.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45057.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45057.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.49</v>
+        <v>14.893</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.64</v>
+        <v>10.464</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.38</v>
+        <v>32.234</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.51</v>
+        <v>25.733</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.62</v>
+        <v>11.721</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.25</v>
+        <v>45.119</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.15</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.08</v>
+        <v>7.76</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.37</v>
+        <v>11.353</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.59</v>
+        <v>12.889</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.76</v>
+        <v>13.464</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.67</v>
+        <v>3.744</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.21</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.61</v>
+        <v>16.395</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.1</v>
+        <v>10.104</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.25</v>
+        <v>1.517</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.42</v>
+        <v>170.081</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.47</v>
+        <v>32.624</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.23</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.44</v>
+        <v>21.557</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.03</v>
+        <v>11.176</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.195</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.16</v>
+        <v>21.999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.11</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.75</v>
+        <v>8.617000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.85</v>
+        <v>10.108</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.73</v>
+        <v>13.426</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>41.259</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.72</v>
+        <v>5.899</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.71</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45057.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.2</v>
+        <v>13.452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.66</v>
+        <v>9.638</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>1.223</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>29.193</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.23</v>
+        <v>23.465</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.76</v>
+        <v>10.587</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.66</v>
+        <v>41.745</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.91</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.75</v>
+        <v>7.097</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.35</v>
+        <v>10.387</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.65</v>
+        <v>11.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.21</v>
+        <v>12.273</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.07</v>
+        <v>3.382</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.44</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.26</v>
+        <v>14.868</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.08</v>
+        <v>9.064</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.012</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.743</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.65</v>
+        <v>152.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.46</v>
+        <v>29.466</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.32</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.63</v>
+        <v>19.578</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.97</v>
+        <v>10.211</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.822</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.42</v>
+        <v>20.106</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.05</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.29</v>
+        <v>7.729</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.59</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.84</v>
+        <v>12.231</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.43</v>
+        <v>38.034</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.2</v>
+        <v>5.368</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.12</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45057.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.15</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.25</v>
+        <v>1.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.48</v>
+        <v>5.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.95</v>
+        <v>3.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.55</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.83</v>
+        <v>12.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.72</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.32</v>
+        <v>1.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.74</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>2.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.3</v>
+        <v>0.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.26</v>
+        <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.68</v>
+        <v>2.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.21</v>
+        <v>1.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.94</v>
+        <v>21.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.93</v>
+        <v>5.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.81</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.85</v>
+        <v>3.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.64</v>
+        <v>1.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.87</v>
+        <v>5.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.12</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.84</v>
+        <v>1.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.65</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.15</v>
+        <v>2.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.26</v>
+        <v>12.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.13</v>
+        <v>0.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.15</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.85</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_376.xlsx
+++ b/DATA_goal/Junction_Flooding_376.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45057.50694444445</v>
+        <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.295</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.407</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.988</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.822</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.934</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.611</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.104</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.942</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.632</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.848</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.482</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.027</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.344</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.535</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.799</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.717</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.386</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.226</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.649</v>
+        <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.584</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.493</v>
+        <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.537</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.435</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.148</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.511</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.035</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.064</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.833</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.025</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.317</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.614</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.758</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.619</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45057.51388888889</v>
+        <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.893</v>
+        <v>2.489</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.464</v>
+        <v>2.641</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>32.234</v>
+        <v>6.377</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.733</v>
+        <v>5.507</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.721</v>
+        <v>2.623</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>45.119</v>
+        <v>10.247</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.033</v>
+        <v>4.151</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.76</v>
+        <v>2.077</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.353</v>
+        <v>3.375</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.889</v>
+        <v>3.589</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.464</v>
+        <v>2.763</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.744</v>
+        <v>0.672</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.655</v>
+        <v>2.214</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.395</v>
+        <v>3.614</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.104</v>
+        <v>2.101</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.517</v>
+        <v>0.248</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>170.081</v>
+        <v>32.424</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>32.624</v>
+        <v>7.466</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.758</v>
+        <v>2.227</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.557</v>
+        <v>4.436</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.176</v>
+        <v>3.027</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.195</v>
+        <v>0.252</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.999</v>
+        <v>6.163</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.617000000000001</v>
+        <v>2.752</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.108</v>
+        <v>2.853</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.426</v>
+        <v>3.734</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.259</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.899</v>
+        <v>1.723</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.45</v>
+        <v>2.712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45057.52083333334</v>
+        <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.452</v>
+        <v>4.204</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.638</v>
+        <v>3.66</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.223</v>
+        <v>0.037</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.193</v>
+        <v>9.867000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.465</v>
+        <v>8.231</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.587</v>
+        <v>3.763</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.745</v>
+        <v>13.662</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.288</v>
+        <v>5.909</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.097</v>
+        <v>2.749</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.387</v>
+        <v>4.345</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.705</v>
+        <v>4.646</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.273</v>
+        <v>4.21</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.382</v>
+        <v>1.065</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.527</v>
+        <v>3.442</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.868</v>
+        <v>5.262</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.064</v>
+        <v>3.078</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.012</v>
+        <v>0.204</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.743</v>
+        <v>0.042</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.91</v>
+        <v>49.653</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.466</v>
+        <v>10.463</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>3.315</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.578</v>
+        <v>6.634</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.211</v>
+        <v>3.973</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.822</v>
+        <v>0.445</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.106</v>
+        <v>7.419</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.583</v>
+        <v>3.049</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.729</v>
+        <v>3.291</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>3.594</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.231</v>
+        <v>4.844</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.034</v>
+        <v>12.426</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.368</v>
+        <v>2.203</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.148</v>
+        <v>4.119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45057.52777777778</v>
+        <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.4</v>
+        <v>9.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.46</v>
+        <v>7.246</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.19</v>
+        <v>20.482</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.76</v>
+        <v>16.949</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.89</v>
+        <v>7.549</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.94</v>
+        <v>26.827</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.91</v>
+        <v>11.722</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.24</v>
+        <v>5.323</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.53</v>
+        <v>8.145</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.08</v>
+        <v>8.736000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.12</v>
+        <v>8.705</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>2.297</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>7.263</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>10.675</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.207</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>106.936</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>20.935</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>6.815</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>13.848</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>13.873</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.121</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.838</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>6.655</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.146000000000001</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>24.265</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.126</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>8.512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>33.01</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>2.68</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>2.18</v>
+      <c r="O6" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>124.15</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_376.xlsx
+++ b/DATA_goal/Junction_Flooding_376.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45057.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.576</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.111</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.554</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.389</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.907</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.844</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.502</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.653</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.261</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.656</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.084</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.314</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.277</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.354</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.754</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.401</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.139</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.251</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.561</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.692</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.381</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.854</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.528</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.991</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.237</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.923999999999999</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.256</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.997</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45057.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.489</v>
+        <v>14.893</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.641</v>
+        <v>10.464</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.377</v>
+        <v>32.234</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.507</v>
+        <v>25.733</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.623</v>
+        <v>11.721</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.247</v>
+        <v>45.119</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.151</v>
+        <v>18.033</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.077</v>
+        <v>7.76</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.375</v>
+        <v>11.353</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.589</v>
+        <v>12.889</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.763</v>
+        <v>13.464</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.672</v>
+        <v>3.744</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.214</v>
+        <v>11.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.614</v>
+        <v>16.395</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.101</v>
+        <v>10.104</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.248</v>
+        <v>1.517</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.424</v>
+        <v>170.081</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.466</v>
+        <v>32.624</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.227</v>
+        <v>10.758</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.436</v>
+        <v>21.557</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.027</v>
+        <v>11.176</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.252</v>
+        <v>2.195</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.163</v>
+        <v>21.999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.11</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.752</v>
+        <v>8.617000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.853</v>
+        <v>10.108</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.734</v>
+        <v>13.426</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.545999999999999</v>
+        <v>41.259</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.723</v>
+        <v>5.899</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.712</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45057.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.204</v>
+        <v>13.452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.66</v>
+        <v>9.638</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.037</v>
+        <v>1.223</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.867000000000001</v>
+        <v>29.193</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.231</v>
+        <v>23.465</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.763</v>
+        <v>10.587</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.662</v>
+        <v>41.745</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.909</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.749</v>
+        <v>7.097</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.345</v>
+        <v>10.387</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.646</v>
+        <v>11.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.21</v>
+        <v>12.273</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.065</v>
+        <v>3.382</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.442</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.262</v>
+        <v>14.868</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.078</v>
+        <v>9.064</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.204</v>
+        <v>1.012</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.042</v>
+        <v>0.743</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.653</v>
+        <v>152.91</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.463</v>
+        <v>29.466</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.315</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.634</v>
+        <v>19.578</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.973</v>
+        <v>10.211</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.445</v>
+        <v>1.822</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.419</v>
+        <v>20.106</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.049</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.291</v>
+        <v>7.729</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.594</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.844</v>
+        <v>12.231</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.158</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.426</v>
+        <v>38.034</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.203</v>
+        <v>5.368</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.119</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45057.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.15</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.246</v>
+        <v>1.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.482</v>
+        <v>5.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.949</v>
+        <v>3.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.549</v>
+        <v>1.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.827</v>
+        <v>12.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.722</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.323</v>
+        <v>1.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.145</v>
+        <v>1.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.736000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.705</v>
+        <v>2.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.297</v>
+        <v>0.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.263</v>
+        <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.675</v>
+        <v>2.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.207</v>
+        <v>1.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.212</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.192</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.936</v>
+        <v>21.38</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.935</v>
+        <v>5.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.815</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.848</v>
+        <v>3.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.644</v>
+        <v>1.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.957</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.873</v>
+        <v>5.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.121</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.838</v>
+        <v>1.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.655</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.146000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.265</v>
+        <v>12.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.126</v>
+        <v>0.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.512</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>19.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>33.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>124.15</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.85</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
